--- a/patents_2014.xlsx
+++ b/patents_2014.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:BH1"/>
+  <dimension ref="A1:BH8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,6 +434,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>applicant_1</t>
@@ -729,6 +734,1305 @@
           <t>inventor_address_10</t>
         </is>
       </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>TVR Holding BV</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Sint-Jobstraat 73 3024 EG Rotterdam NL</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Peejeedee Beheer BV</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Roermeen 3 3844 KA Harderwijk NL</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>SJS Beheer BV</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Duinvoet 94 8242 RC Lelystad NL</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>R.E. van Riemsdijk Holding BV</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Koninginneweg 41 3261 CA Oud-Beijerland NL</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>A process for the preparation of a recycled composite material</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>EP 2764969 B1 20180328</t>
+        </is>
+      </c>
+      <c r="Y2" t="n">
+        <v>20180328</v>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>EP 14154377.7 20140207</t>
+        </is>
+      </c>
+      <c r="AA2" t="n">
+        <v>20140207</v>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>B29B 17/00 (2006.01)</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>B29C 70/02 (2006.01)</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>B29C 43/00 (2006.01)</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>van Riemsdijk</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>Roland Edward</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>De Serpeling 10 8219 PZ, Lelystad NL</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>Dwarshuis</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>Pieter Jan</t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>De Serpeling 10 8219 PZ, Lelystad NL</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr"/>
+      <c r="AL2" t="inlineStr"/>
+      <c r="AM2" t="inlineStr"/>
+      <c r="AN2" t="inlineStr"/>
+      <c r="AO2" t="inlineStr"/>
+      <c r="AP2" t="inlineStr"/>
+      <c r="AQ2" t="inlineStr"/>
+      <c r="AR2" t="inlineStr"/>
+      <c r="AS2" t="inlineStr"/>
+      <c r="AT2" t="inlineStr"/>
+      <c r="AU2" t="inlineStr"/>
+      <c r="AV2" t="inlineStr"/>
+      <c r="AW2" t="inlineStr"/>
+      <c r="AX2" t="inlineStr"/>
+      <c r="AY2" t="inlineStr"/>
+      <c r="AZ2" t="inlineStr"/>
+      <c r="BA2" t="inlineStr"/>
+      <c r="BB2" t="inlineStr"/>
+      <c r="BC2" t="inlineStr"/>
+      <c r="BD2" t="inlineStr"/>
+      <c r="BE2" t="inlineStr"/>
+      <c r="BF2" t="inlineStr"/>
+      <c r="BG2" t="inlineStr"/>
+      <c r="BH2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Rotec Engineering B.V.</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Verlengde Gildenweg 30 8304 BK Emmeloord NL</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Van Der Sluis, Peter Willem</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Kamperwetering 19 8271 PP IJsselmuiden NL</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Berghuis, Raymond Roger</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>M. Ruyshof 6 1333 JL Almere NL</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Hofman, Henk</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Plattedijk 47 8531 PC Lemmer NL</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>CLEANING DEVICE FOR CLEANING TEATS OF AN ANIMAL FOR MILKING, MILKING MACHINE PROVIDED THEREWITH AND METHOD THEREFOR</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>EP 3024318 A1 20160601</t>
+        </is>
+      </c>
+      <c r="Y3" t="n">
+        <v>20160601</v>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>EP 14781305.9 20140721</t>
+        </is>
+      </c>
+      <c r="AA3" t="n">
+        <v>20140721</v>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>A01J 7/04 (2006.01)</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr"/>
+      <c r="AD3" t="inlineStr"/>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>VAN DER SLUIS</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>Peter Willem</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>Kamperwetering 19 NL-8271 PP IJsselmuiden NL</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>BERGHUIS</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>Raymond Roger</t>
+        </is>
+      </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>M. Ruyshof 6 NL-1333 JL Almere NL</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>HOFMAN</t>
+        </is>
+      </c>
+      <c r="AL3" t="inlineStr">
+        <is>
+          <t>Henk</t>
+        </is>
+      </c>
+      <c r="AM3" t="inlineStr">
+        <is>
+          <t>Plattedijk 47 NL-8531 PC Lemmer NL</t>
+        </is>
+      </c>
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="inlineStr"/>
+      <c r="AP3" t="inlineStr"/>
+      <c r="AQ3" t="inlineStr"/>
+      <c r="AR3" t="inlineStr"/>
+      <c r="AS3" t="inlineStr"/>
+      <c r="AT3" t="inlineStr"/>
+      <c r="AU3" t="inlineStr"/>
+      <c r="AV3" t="inlineStr"/>
+      <c r="AW3" t="inlineStr"/>
+      <c r="AX3" t="inlineStr"/>
+      <c r="AY3" t="inlineStr"/>
+      <c r="AZ3" t="inlineStr"/>
+      <c r="BA3" t="inlineStr"/>
+      <c r="BB3" t="inlineStr"/>
+      <c r="BC3" t="inlineStr"/>
+      <c r="BD3" t="inlineStr"/>
+      <c r="BE3" t="inlineStr"/>
+      <c r="BF3" t="inlineStr"/>
+      <c r="BG3" t="inlineStr"/>
+      <c r="BH3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Saudi Basic Industries Corporation</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>P.O. Box 5101 Riyadh 11422 SA</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>SABIC Global Technologies B.V.</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Plasticslaan 1 4612 PX  Bergen op Zoom NL</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Ward, Andrew Mark</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Sabic UK Petrochemicals 
+P.O. Box 99 Wilton Centre TS10 4YA GB</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Schaerlaeckens, Egidius Jacoba Maria</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>P.O. Box 3008 6160 GA Geleen NL</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Willigenburg Van, Joris</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>P.O. Box 3008 6160 MA Geleen NL</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Velasco Pelaez, Raul</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>P.O. Box 3008 6160 GA Geleen NL</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>PROCESS FOR PRODUCING BTX FROM A MIXED HYDROCARBON SOURCE USING COKING</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>EP 3110920 A1 20170104</t>
+        </is>
+      </c>
+      <c r="Y4" t="n">
+        <v>20170104</v>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>EP 14809435.2 20141210</t>
+        </is>
+      </c>
+      <c r="AA4" t="n">
+        <v>20141210</v>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>C10G 69/00 (2006.01)</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>C10G 69/06 (2006.01)</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr"/>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>WARD</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>Andrew Mark</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>Sabic UK Petrochemicals
+P.O. Box 99 Wilton Centre TS10 4YA GB</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>SCHAERLAECKENS</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>Egidius Jacoba Maria</t>
+        </is>
+      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>c/o Sabic Intellectual Property Group
+P.O. Box 3008 NL-6160 GA Geleen NL</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>VAN WILLIGENBURG</t>
+        </is>
+      </c>
+      <c r="AL4" t="inlineStr">
+        <is>
+          <t>Joris</t>
+        </is>
+      </c>
+      <c r="AM4" t="inlineStr">
+        <is>
+          <t>P.O. Box 3008 NL-6160 MA Geleen NL</t>
+        </is>
+      </c>
+      <c r="AN4" t="inlineStr">
+        <is>
+          <t>VELASCO PELAEZ</t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>Raul</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t>c/o Sabic Intellectual Property Group
+P.O. Box 3008 NL-6160 GA Geleen NL</t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr">
+        <is>
+          <t>OPRINS</t>
+        </is>
+      </c>
+      <c r="AR4" t="inlineStr">
+        <is>
+          <t>Arno Johannes Maria</t>
+        </is>
+      </c>
+      <c r="AS4" t="inlineStr">
+        <is>
+          <t>c/o Sabic Intellectual Property Group
+P.O. Box 3008 NL-6160 GA Geleen NL</t>
+        </is>
+      </c>
+      <c r="AT4" t="inlineStr">
+        <is>
+          <t>NARAYANASWAMY</t>
+        </is>
+      </c>
+      <c r="AU4" t="inlineStr">
+        <is>
+          <t>Ravichander</t>
+        </is>
+      </c>
+      <c r="AV4" t="inlineStr">
+        <is>
+          <t>Sabic Research &amp; Technology Pvt. Ltd.
+Plot No.81 to 85 Village: Chikkadunnasandra
+Anekal: Taluk
+Off. Sarjapura Attibele State Highway
+Near St. Philomena School Bangalore
+Karnataka 562125 IN</t>
+        </is>
+      </c>
+      <c r="AW4" t="inlineStr">
+        <is>
+          <t>RAJAGOPALAN</t>
+        </is>
+      </c>
+      <c r="AX4" t="inlineStr">
+        <is>
+          <t>Vijayanand</t>
+        </is>
+      </c>
+      <c r="AY4" t="inlineStr">
+        <is>
+          <t>Sabic Research &amp; Technology Pvt. Ltd.
+Plot No. 81 to 85
+Village: Chikkadunnasandra
+Anekal Taluk
+Off. Sarjapura   Attibele State Highway
+Near St. Philomena School Bangalore
+Karnataka 562125 IN</t>
+        </is>
+      </c>
+      <c r="AZ4" t="inlineStr"/>
+      <c r="BA4" t="inlineStr"/>
+      <c r="BB4" t="inlineStr"/>
+      <c r="BC4" t="inlineStr"/>
+      <c r="BD4" t="inlineStr"/>
+      <c r="BE4" t="inlineStr"/>
+      <c r="BF4" t="inlineStr"/>
+      <c r="BG4" t="inlineStr"/>
+      <c r="BH4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>TVR Holding BV</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Sint-Jobstraat 73 3024 EG Rotterdam NL</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Peejeedee Beheer BV</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Roermeen 3 3844 KA Harderwijk NL</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>SJS Beheer BV</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Duinvoet 94 8242 RC Lelystad NL</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>R.E. van Riemsdijk Holding BV</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Koninginneweg 41 3261 CA Oud-Beijerland NL</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>A process for the preparation of a recycled composite material</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>EP 2764969 B1 20180328</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>20180328</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>EP 14154377.7 20140207</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>20140207</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>B29B 17/00 (2006.01)</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>B29C 70/02 (2006.01)</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>B29C 43/00 (2006.01)</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>van Riemsdijk</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>Roland Edward</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>De Serpeling 10 8219 PZ, Lelystad NL</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>Dwarshuis</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>Pieter Jan</t>
+        </is>
+      </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>De Serpeling 10 8219 PZ, Lelystad NL</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr"/>
+      <c r="AL5" t="inlineStr"/>
+      <c r="AM5" t="inlineStr"/>
+      <c r="AN5" t="inlineStr"/>
+      <c r="AO5" t="inlineStr"/>
+      <c r="AP5" t="inlineStr"/>
+      <c r="AQ5" t="inlineStr"/>
+      <c r="AR5" t="inlineStr"/>
+      <c r="AS5" t="inlineStr"/>
+      <c r="AT5" t="inlineStr"/>
+      <c r="AU5" t="inlineStr"/>
+      <c r="AV5" t="inlineStr"/>
+      <c r="AW5" t="inlineStr"/>
+      <c r="AX5" t="inlineStr"/>
+      <c r="AY5" t="inlineStr"/>
+      <c r="AZ5" t="inlineStr"/>
+      <c r="BA5" t="inlineStr"/>
+      <c r="BB5" t="inlineStr"/>
+      <c r="BC5" t="inlineStr"/>
+      <c r="BD5" t="inlineStr"/>
+      <c r="BE5" t="inlineStr"/>
+      <c r="BF5" t="inlineStr"/>
+      <c r="BG5" t="inlineStr"/>
+      <c r="BH5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Saudi Basic Industries Corporation</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>P.O. Box 5101 Riyadh 11422 SA</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>SABIC Global Technologies B.V.</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Plasticslaan 1 4612 PX Bergen op Zoom NL</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Ward, Andrew Mark</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Sabic UK Petrochemicals 
+P.O. Box 99 Wilton Centre TS10 4YA GB</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Schaerlaeckens, Egidius Jacoba Maria</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>P.O. Box 3008 6160 GA Geleen NL</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Willigenburg Van, Joris</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>P.O. Box 3008 6160 MA Geleen NL</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Velasco Pelaez, Raul</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>P.O. Box 3008 6160 GA Geleen NL</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>PROCESS FOR PRODUCING BTX FROM A MIXED HYDROCARBON SOURCE USING COKING</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>EP 3110920 B1 20180725</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>20180725</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>EP 14809435.2 20141210</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>20141210</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>C10G 69/00 (2006.01)</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>C10G 69/06 (2006.01)</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>C10G 57/00 (2006.01)</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>WARD</t>
+        </is>
+      </c>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>Andrew Mark</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>Sabic UK Petrochemicals
+P.O. Box 99 Wilton Centre TS10 4YA GB</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>SCHAERLAECKENS</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>Egidius Jacoba Maria</t>
+        </is>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>c/o Sabic Intellectual Property Group
+P.O. Box 3008 NL-6160 GA Geleen NL</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>VAN WILLIGENBURG</t>
+        </is>
+      </c>
+      <c r="AL6" t="inlineStr">
+        <is>
+          <t>Joris</t>
+        </is>
+      </c>
+      <c r="AM6" t="inlineStr">
+        <is>
+          <t>P.O. Box 3008 NL-6160 MA Geleen NL</t>
+        </is>
+      </c>
+      <c r="AN6" t="inlineStr">
+        <is>
+          <t>VELASCO PELAEZ</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>Raul</t>
+        </is>
+      </c>
+      <c r="AP6" t="inlineStr">
+        <is>
+          <t>c/o Sabic Intellectual Property Group
+P.O. Box 3008 NL-6160 GA Geleen NL</t>
+        </is>
+      </c>
+      <c r="AQ6" t="inlineStr">
+        <is>
+          <t>OPRINS</t>
+        </is>
+      </c>
+      <c r="AR6" t="inlineStr">
+        <is>
+          <t>Arno Johannes Maria</t>
+        </is>
+      </c>
+      <c r="AS6" t="inlineStr">
+        <is>
+          <t>c/o Sabic Intellectual Property Group
+P.O. Box 3008 NL-6160 GA Geleen NL</t>
+        </is>
+      </c>
+      <c r="AT6" t="inlineStr">
+        <is>
+          <t>NARAYANASWAMY</t>
+        </is>
+      </c>
+      <c r="AU6" t="inlineStr">
+        <is>
+          <t>Ravichander</t>
+        </is>
+      </c>
+      <c r="AV6" t="inlineStr">
+        <is>
+          <t>Sabic Research &amp; Technology Pvt. Ltd.
+Plot No.81 to 85 Village: Chikkadunnasandra
+Anekal: Taluk
+Off. Sarjapura Attibele State Highway
+Near St. Philomena School Bangalore
+Karnataka 562125 IN</t>
+        </is>
+      </c>
+      <c r="AW6" t="inlineStr">
+        <is>
+          <t>RAJAGOPALAN</t>
+        </is>
+      </c>
+      <c r="AX6" t="inlineStr">
+        <is>
+          <t>Vijayanand</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr">
+        <is>
+          <t>Sabic Research &amp; Technology Pvt. Ltd.
+Plot No. 81 to 85
+Village: Chikkadunnasandra
+Anekal Taluk
+Off. Sarjapura   Attibele State Highway
+Near St. Philomena School Bangalore
+Karnataka 562125 IN</t>
+        </is>
+      </c>
+      <c r="AZ6" t="inlineStr"/>
+      <c r="BA6" t="inlineStr"/>
+      <c r="BB6" t="inlineStr"/>
+      <c r="BC6" t="inlineStr"/>
+      <c r="BD6" t="inlineStr"/>
+      <c r="BE6" t="inlineStr"/>
+      <c r="BF6" t="inlineStr"/>
+      <c r="BG6" t="inlineStr"/>
+      <c r="BH6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Akzo Nobel Chemicals International B.V.</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Velperweg 76 NL-6824 BM Arnhem NL</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>ECN Energieonderzoek Centrum Nederland</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Westerduinweg 3 1755 LE  Petten NL</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>University Of Twente</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Drienerlolaan 5 7522 NB  Enschede NL</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>Process for separation methanol and water from non-condensables</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>The present invention pertains to a process for the separation of methanol and water from non-condensables wherein a feed stream comprising methanol, water and non-condensables is subjected to a membrane separation step at a temperature of at least 150°C and a pressure of at least 1 bar (100 kPa) thereby separating the mixture into a permeate being enriched in methanol and water as compared to the feed stream and a retentate being leaner in methanol and water as compared to the feed stream, characterized in that the membrane separation step is carried out using a membrane comprising a separating layer of sulfonated poly ether.</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>EP 2974785 A1 20160120</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>20160120</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>EP 14176908.3 20140714</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>20140714</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>B01D 61/36 (2006.01)</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>C07C 29/76 (2006.01)</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>C07C 31/04 (2006.01)</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>Bargeman</t>
+        </is>
+      </c>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>Gerrald</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>Simon Vestdijkstraat 36 NL-6708 NW Wageningen NL</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>van Berkel</t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>Franciscus Petrus Felix</t>
+        </is>
+      </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>Geest 20 NL-1811 GH Alkmaar NL</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>den Exter</t>
+        </is>
+      </c>
+      <c r="AL7" t="inlineStr">
+        <is>
+          <t>Marcellino Johannes</t>
+        </is>
+      </c>
+      <c r="AM7" t="inlineStr">
+        <is>
+          <t>Saenredamhof 28 NL-1816 ME Alkmaar NL</t>
+        </is>
+      </c>
+      <c r="AN7" t="inlineStr">
+        <is>
+          <t>de Groot</t>
+        </is>
+      </c>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>Matheus Theodorus</t>
+        </is>
+      </c>
+      <c r="AP7" t="inlineStr">
+        <is>
+          <t>Tulpstraat 40bis NL-3581 RN Utrecht NL</t>
+        </is>
+      </c>
+      <c r="AQ7" t="inlineStr">
+        <is>
+          <t>Mengers</t>
+        </is>
+      </c>
+      <c r="AR7" t="inlineStr">
+        <is>
+          <t>Harm Jacob</t>
+        </is>
+      </c>
+      <c r="AS7" t="inlineStr">
+        <is>
+          <t>Brouwerijstraat 40-2 NL-7523 XD Enschede NL</t>
+        </is>
+      </c>
+      <c r="AT7" t="inlineStr">
+        <is>
+          <t>Nijmeijer</t>
+        </is>
+      </c>
+      <c r="AU7" t="inlineStr">
+        <is>
+          <t>Dorothea Catharina</t>
+        </is>
+      </c>
+      <c r="AV7" t="inlineStr">
+        <is>
+          <t>Erve Olde Blenke 20 NL-7577 SJ Oldenzaal NL</t>
+        </is>
+      </c>
+      <c r="AW7" t="inlineStr">
+        <is>
+          <t>van Tuel</t>
+        </is>
+      </c>
+      <c r="AX7" t="inlineStr">
+        <is>
+          <t>Marc Matheus Antonius</t>
+        </is>
+      </c>
+      <c r="AY7" t="inlineStr">
+        <is>
+          <t>Aidastraat 22 NL-1827 RB Alkmaar NL</t>
+        </is>
+      </c>
+      <c r="AZ7" t="inlineStr">
+        <is>
+          <t>Vos</t>
+        </is>
+      </c>
+      <c r="BA7" t="inlineStr">
+        <is>
+          <t>Hendrik Jan</t>
+        </is>
+      </c>
+      <c r="BB7" t="inlineStr">
+        <is>
+          <t>Lindelaan 7 NL-7313 GK Apeldoorn NL</t>
+        </is>
+      </c>
+      <c r="BC7" t="inlineStr"/>
+      <c r="BD7" t="inlineStr"/>
+      <c r="BE7" t="inlineStr"/>
+      <c r="BF7" t="inlineStr"/>
+      <c r="BG7" t="inlineStr"/>
+      <c r="BH7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Universiteit Maastricht</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Minderbroedersberg 4-6 6211 LK  Maastricht NL</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Academisch Ziekenhuis Maastricht</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>P. Debyelaan 25 6229 HX Maastricht NL</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>STICHTING MAASTRICHT RADIATION ONCOLOGY 
+"MAASTRO CLINIC"</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Dr. Tanslaan 12 6229 ET Maastricht NL</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>METHOD FOR DETERMINING THE RISK OF DEVELOPING RADIATION-INDUCED TOXICITY AFTER EXPOSURE TO RADIATION</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>EP 2997158 A1 20160323</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>20160323</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>EP 14721386.2 20140505</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>20140505</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>C12Q 1/68 (2006.01)</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr"/>
+      <c r="AD8" t="inlineStr"/>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>LAMBIN</t>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>Philippe</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>17 Rue du Wanroux 1470 Genappe-Bousval BE</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>NALBANTOV</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>Georgi Ilkov</t>
+        </is>
+      </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>Lorentzstraat 17 6227 TJ Maastricht NL</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>SMEETS</t>
+        </is>
+      </c>
+      <c r="AL8" t="inlineStr">
+        <is>
+          <t>Hubertus Julius Maria</t>
+        </is>
+      </c>
+      <c r="AM8" t="inlineStr">
+        <is>
+          <t>Jekerstraat 37H 6211 NS Maastricht NL</t>
+        </is>
+      </c>
+      <c r="AN8" t="inlineStr">
+        <is>
+          <t>VOETS</t>
+        </is>
+      </c>
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>An Mieke</t>
+        </is>
+      </c>
+      <c r="AP8" t="inlineStr">
+        <is>
+          <t>Schuthaaglaan 16 3740 Bilzen BE</t>
+        </is>
+      </c>
+      <c r="AQ8" t="inlineStr"/>
+      <c r="AR8" t="inlineStr"/>
+      <c r="AS8" t="inlineStr"/>
+      <c r="AT8" t="inlineStr"/>
+      <c r="AU8" t="inlineStr"/>
+      <c r="AV8" t="inlineStr"/>
+      <c r="AW8" t="inlineStr"/>
+      <c r="AX8" t="inlineStr"/>
+      <c r="AY8" t="inlineStr"/>
+      <c r="AZ8" t="inlineStr"/>
+      <c r="BA8" t="inlineStr"/>
+      <c r="BB8" t="inlineStr"/>
+      <c r="BC8" t="inlineStr"/>
+      <c r="BD8" t="inlineStr"/>
+      <c r="BE8" t="inlineStr"/>
+      <c r="BF8" t="inlineStr"/>
+      <c r="BG8" t="inlineStr"/>
+      <c r="BH8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
